--- a/API - Irene Nurintan.xlsx
+++ b/API - Irene Nurintan.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="88">
   <si>
     <t>Method</t>
   </si>
@@ -86,9 +86,6 @@
     <t>Menambah user baru</t>
   </si>
   <si>
-    <t>/register</t>
-  </si>
-  <si>
     <t>POST</t>
   </si>
   <si>
@@ -101,15 +98,9 @@
     <t xml:space="preserve">    "message": "Success Login",</t>
   </si>
   <si>
-    <t>/login</t>
-  </si>
-  <si>
     <t>Login user</t>
   </si>
   <si>
-    <t>/home/{username}</t>
-  </si>
-  <si>
     <t>Get Saldo user yang login</t>
   </si>
   <si>
@@ -122,9 +113,6 @@
     <t>GET</t>
   </si>
   <si>
-    <t>/transfer</t>
-  </si>
-  <si>
     <t>Transfer uang ke bank lain</t>
   </si>
   <si>
@@ -143,9 +131,6 @@
     <t xml:space="preserve">    "message": "Berhasil melakukan transfer",</t>
   </si>
   <si>
-    <t xml:space="preserve">/logout </t>
-  </si>
-  <si>
     <t>Logout</t>
   </si>
   <si>
@@ -164,31 +149,145 @@
     <t xml:space="preserve">    "kode_bank": "008",</t>
   </si>
   <si>
-    <t xml:space="preserve">    "nama_bank": "Mandiri"</t>
-  </si>
-  <si>
     <t>Menambah bank&amp;rekening (dummy) baru</t>
   </si>
   <si>
     <t>Registrasi berhasil!</t>
   </si>
   <si>
-    <t>8990/dum/saldo/{rekening}</t>
-  </si>
-  <si>
     <t>8990/dum/register</t>
   </si>
   <si>
     <t>Cek saldo dummy</t>
   </si>
   <si>
-    <t>Path parameter {rekening}</t>
-  </si>
-  <si>
     <t xml:space="preserve">    "message": "5500000",</t>
   </si>
   <si>
-    <t>Insyaallah akan bertambah seiring disempurnakannya aplikasi</t>
+    <t>8080/register</t>
+  </si>
+  <si>
+    <t>8080/login</t>
+  </si>
+  <si>
+    <t>8080/home/{username}</t>
+  </si>
+  <si>
+    <t>8080/transfer</t>
+  </si>
+  <si>
+    <t>        {</t>
+  </si>
+  <si>
+    <t>        },</t>
+  </si>
+  <si>
+    <t>        }</t>
+  </si>
+  <si>
+    <t>    ],</t>
+  </si>
+  <si>
+    <t>    "data": [</t>
+  </si>
+  <si>
+    <t>            "username": "kelapamud",</t>
+  </si>
+  <si>
+    <t>            "rekening_tujuan": "",</t>
+  </si>
+  <si>
+    <t>            "transaction_date": "Dec 23, 2020, 7:00:00 AM",</t>
+  </si>
+  <si>
+    <t>            "tipe_transaksi": "Uang Masuk",</t>
+  </si>
+  <si>
+    <t>            "trans_money": 5000000</t>
+  </si>
+  <si>
+    <t>            "transaction_date": "Dec 25, 2020, 7:00:00 AM",</t>
+  </si>
+  <si>
+    <t>            "tipe_transaksi": "Transfer Uang",</t>
+  </si>
+  <si>
+    <t>            "trans_money": 0</t>
+  </si>
+  <si>
+    <t>            "tipe_transaksi": "Biaya Admin",</t>
+  </si>
+  <si>
+    <t>            "trans_money": 6500</t>
+  </si>
+  <si>
+    <t>            "rekening_tujuan": "91785874",</t>
+  </si>
+  <si>
+    <t>            "trans_money": 500000</t>
+  </si>
+  <si>
+    <t>    "response": 200,</t>
+  </si>
+  <si>
+    <t>    "message": "Berhasil ambil data",</t>
+  </si>
+  <si>
+    <t>    "status": "Success"</t>
+  </si>
+  <si>
+    <t>Get Mutasi</t>
+  </si>
+  <si>
+    <t>8080/mutasi</t>
+  </si>
+  <si>
+    <t>    "username": "kelapamud",</t>
+  </si>
+  <si>
+    <t>    "start_mutasi": "2020-11-30",</t>
+  </si>
+  <si>
+    <t>    "end_mutasi": "2020-12-25"</t>
+  </si>
+  <si>
+    <t>8990/dum/login</t>
+  </si>
+  <si>
+    <t>Login user dummy</t>
+  </si>
+  <si>
+    <t>    "username": "cingmil",</t>
+  </si>
+  <si>
+    <t>    "password": "kucinghamil"</t>
+  </si>
+  <si>
+    <t>    "message": "Success Login",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    "username":"cangtip",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    "nama_bank": "Mandiri",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    "password":"cangtipsekali"</t>
+  </si>
+  <si>
+    <t>8990/dum/saldo/{username}</t>
+  </si>
+  <si>
+    <t>8080/logout/{username}</t>
+  </si>
+  <si>
+    <t>8990/dum/logout/{username}</t>
+  </si>
+  <si>
+    <t>Logout user dummy</t>
+  </si>
+  <si>
+    <t>    "message": "Success Logout",</t>
   </si>
 </sst>
 </file>
@@ -204,8 +303,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="8"/>
-      <color theme="0" tint="-0.14999847407452621"/>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -219,7 +317,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="27">
+  <borders count="31">
     <border>
       <left/>
       <right/>
@@ -228,30 +326,8 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
       <top style="medium">
         <color indexed="64"/>
       </top>
@@ -511,111 +587,208 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -896,10 +1069,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E47"/>
+  <dimension ref="A1:F101"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D41" sqref="D41:D45"/>
+    <sheetView tabSelected="1" topLeftCell="A87" workbookViewId="0">
+      <selection activeCell="E104" sqref="E104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -912,524 +1085,1092 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="26" t="s">
+      <c r="B1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="26" t="s">
+      <c r="D1" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="E1" s="5" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" s="26" t="s">
+        <v>46</v>
+      </c>
+      <c r="C2" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="1"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A3" s="23"/>
+      <c r="B3" s="26"/>
+      <c r="C3" s="29"/>
+      <c r="D3" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" s="1"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A4" s="23"/>
+      <c r="B4" s="26"/>
+      <c r="C4" s="29"/>
+      <c r="D4" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A5" s="23"/>
+      <c r="B5" s="26"/>
+      <c r="C5" s="29"/>
+      <c r="D5" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A6" s="23"/>
+      <c r="B6" s="26"/>
+      <c r="C6" s="29"/>
+      <c r="D6" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A7" s="23"/>
+      <c r="B7" s="26"/>
+      <c r="C7" s="29"/>
+      <c r="D7" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A8" s="23"/>
+      <c r="B8" s="26"/>
+      <c r="C8" s="29"/>
+      <c r="D8" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A9" s="23"/>
+      <c r="B9" s="26"/>
+      <c r="C9" s="29"/>
+      <c r="D9" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" s="1"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A10" s="23"/>
+      <c r="B10" s="26"/>
+      <c r="C10" s="29"/>
+      <c r="D10" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E10" s="1"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A11" s="23"/>
+      <c r="B11" s="26"/>
+      <c r="C11" s="29"/>
+      <c r="D11" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E11" s="1"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A12" s="49"/>
+      <c r="B12" s="31"/>
+      <c r="C12" s="50"/>
+      <c r="D12" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="E12" s="11"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A13" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="B13" s="26" t="s">
+        <v>47</v>
+      </c>
+      <c r="C13" s="29" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A14" s="23"/>
+      <c r="B14" s="26"/>
+      <c r="C14" s="29"/>
+      <c r="D14" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="18" t="s">
+      <c r="E14" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A15" s="23"/>
+      <c r="B15" s="26"/>
+      <c r="C15" s="29"/>
+      <c r="D15" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A16" s="23"/>
+      <c r="B16" s="26"/>
+      <c r="C16" s="29"/>
+      <c r="D16" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A17" s="49"/>
+      <c r="B17" s="31"/>
+      <c r="C17" s="50"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="11" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A18" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="B18" s="26" t="s">
+        <v>48</v>
+      </c>
+      <c r="C18" s="29" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A19" s="23"/>
+      <c r="B19" s="26"/>
+      <c r="C19" s="29"/>
+      <c r="D19" s="26"/>
+      <c r="E19" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A20" s="23"/>
+      <c r="B20" s="26"/>
+      <c r="C20" s="29"/>
+      <c r="D20" s="26"/>
+      <c r="E20" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A21" s="23"/>
+      <c r="B21" s="26"/>
+      <c r="C21" s="29"/>
+      <c r="D21" s="26"/>
+      <c r="E21" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A22" s="49"/>
+      <c r="B22" s="31"/>
+      <c r="C22" s="50"/>
+      <c r="D22" s="31"/>
+      <c r="E22" s="11" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A23" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D2" s="23" t="s">
+      <c r="B23" s="25" t="s">
+        <v>49</v>
+      </c>
+      <c r="C23" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="D23" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="3"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A3" s="1"/>
-      <c r="B3" s="18"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="23" t="s">
-        <v>6</v>
-      </c>
-      <c r="E3" s="3"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A4" s="1"/>
-      <c r="B4" s="18"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="23" t="s">
-        <v>7</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A5" s="1"/>
-      <c r="B5" s="18"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A6" s="1"/>
-      <c r="B6" s="18"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="23" t="s">
-        <v>9</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A7" s="1"/>
-      <c r="B7" s="18"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A8" s="1"/>
-      <c r="B8" s="18"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="23" t="s">
-        <v>11</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A9" s="1"/>
-      <c r="B9" s="18"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="E9" s="3"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A10" s="1"/>
-      <c r="B10" s="18"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="E10" s="3"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A11" s="1"/>
-      <c r="B11" s="18"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="E11" s="3"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A12" s="28"/>
-      <c r="B12" s="19"/>
-      <c r="C12" s="29"/>
-      <c r="D12" s="25" t="s">
-        <v>15</v>
-      </c>
-      <c r="E12" s="27"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A13" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B13" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D13" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A14" s="1"/>
-      <c r="B14" s="18"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="23" t="s">
-        <v>22</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A15" s="1"/>
-      <c r="B15" s="18"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="23" t="s">
-        <v>23</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A16" s="1"/>
-      <c r="B16" s="18"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A17" s="28"/>
-      <c r="B17" s="19"/>
-      <c r="C17" s="29"/>
-      <c r="D17" s="25"/>
-      <c r="E17" s="27" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A18" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B18" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D18" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A19" s="1"/>
-      <c r="B19" s="18"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="18"/>
-      <c r="E19" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A20" s="1"/>
-      <c r="B20" s="18"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="18"/>
-      <c r="E20" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A21" s="1"/>
-      <c r="B21" s="18"/>
-      <c r="C21" s="2"/>
-      <c r="D21" s="18"/>
-      <c r="E21" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A22" s="28"/>
-      <c r="B22" s="19"/>
-      <c r="C22" s="29"/>
-      <c r="D22" s="19"/>
-      <c r="E22" s="27" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A23" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="B23" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="C23" s="31" t="s">
-        <v>33</v>
-      </c>
-      <c r="D23" s="22" t="s">
-        <v>5</v>
-      </c>
-      <c r="E23" s="32"/>
+      <c r="E23" s="15"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A24" s="33"/>
-      <c r="B24" s="18"/>
-      <c r="C24" s="2"/>
-      <c r="D24" s="23" t="s">
-        <v>34</v>
-      </c>
-      <c r="E24" s="34" t="s">
+      <c r="B24" s="26"/>
+      <c r="C24" s="29"/>
+      <c r="D24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="E24" s="16" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A25" s="33"/>
-      <c r="B25" s="18"/>
-      <c r="C25" s="2"/>
-      <c r="D25" s="23" t="s">
-        <v>22</v>
-      </c>
-      <c r="E25" s="34" t="s">
+      <c r="B25" s="26"/>
+      <c r="C25" s="29"/>
+      <c r="D25" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E25" s="16" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A26" s="33"/>
-      <c r="B26" s="18"/>
-      <c r="C26" s="2"/>
-      <c r="D26" s="23" t="s">
-        <v>35</v>
-      </c>
-      <c r="E26" s="34" t="s">
-        <v>38</v>
+      <c r="B26" s="26"/>
+      <c r="C26" s="29"/>
+      <c r="D26" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="E26" s="16" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A27" s="33"/>
-      <c r="B27" s="18"/>
-      <c r="C27" s="2"/>
-      <c r="D27" s="23" t="s">
-        <v>36</v>
-      </c>
-      <c r="E27" s="34" t="s">
+      <c r="B27" s="26"/>
+      <c r="C27" s="29"/>
+      <c r="D27" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="E27" s="16" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A28" s="33"/>
-      <c r="B28" s="18"/>
-      <c r="C28" s="2"/>
-      <c r="D28" s="23" t="s">
+      <c r="B28" s="26"/>
+      <c r="C28" s="29"/>
+      <c r="D28" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="E28" s="16" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A29" s="34"/>
+      <c r="B29" s="31"/>
+      <c r="C29" s="50"/>
+      <c r="D29" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="E29" s="17"/>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A30" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="E28" s="34" t="s">
+      <c r="B30" s="25" t="s">
+        <v>84</v>
+      </c>
+      <c r="C30" s="29" t="s">
+        <v>35</v>
+      </c>
+      <c r="D30" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="E30" s="16" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A31" s="23"/>
+      <c r="B31" s="26"/>
+      <c r="C31" s="29"/>
+      <c r="D31" s="26"/>
+      <c r="E31" s="16" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A32" s="23"/>
+      <c r="B32" s="26"/>
+      <c r="C32" s="29"/>
+      <c r="D32" s="26"/>
+      <c r="E32" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A33" s="23"/>
+      <c r="B33" s="26"/>
+      <c r="C33" s="29"/>
+      <c r="D33" s="26"/>
+      <c r="E33" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A34" s="23"/>
+      <c r="B34" s="31"/>
+      <c r="C34" s="29"/>
+      <c r="D34" s="31"/>
+      <c r="E34" s="17" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A29" s="35"/>
-      <c r="B29" s="19"/>
-      <c r="C29" s="29"/>
-      <c r="D29" s="25" t="s">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A35" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="B35" s="41" t="s">
+        <v>71</v>
+      </c>
+      <c r="C35" s="25" t="s">
+        <v>70</v>
+      </c>
+      <c r="D35" s="6"/>
+      <c r="E35" s="14" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A36" s="36"/>
+      <c r="B36" s="41"/>
+      <c r="C36" s="26"/>
+      <c r="D36" s="7"/>
+      <c r="E36" s="14" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A37" s="36"/>
+      <c r="B37" s="41"/>
+      <c r="C37" s="26"/>
+      <c r="D37" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="E37" s="14" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A38" s="36"/>
+      <c r="B38" s="41"/>
+      <c r="C38" s="26"/>
+      <c r="D38" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="E38" s="14" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A39" s="36"/>
+      <c r="B39" s="41"/>
+      <c r="C39" s="26"/>
+      <c r="D39" s="18" t="s">
+        <v>73</v>
+      </c>
+      <c r="E39" s="14" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A40" s="36"/>
+      <c r="B40" s="41"/>
+      <c r="C40" s="26"/>
+      <c r="D40" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="E40" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="F40" s="13"/>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A41" s="36"/>
+      <c r="B41" s="41"/>
+      <c r="C41" s="26"/>
+      <c r="D41" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="E29" s="36"/>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A30" s="1" t="s">
+      <c r="E41" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="F41" s="13"/>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A42" s="36"/>
+      <c r="B42" s="41"/>
+      <c r="C42" s="26"/>
+      <c r="D42" s="7"/>
+      <c r="E42" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="F42" s="13"/>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A43" s="36"/>
+      <c r="B43" s="41"/>
+      <c r="C43" s="26"/>
+      <c r="D43" s="7"/>
+      <c r="E43" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="F43" s="13"/>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A44" s="36"/>
+      <c r="B44" s="41"/>
+      <c r="C44" s="26"/>
+      <c r="D44" s="7"/>
+      <c r="E44" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="F44" s="13"/>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A45" s="36"/>
+      <c r="B45" s="41"/>
+      <c r="C45" s="26"/>
+      <c r="D45" s="7"/>
+      <c r="E45" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="F45" s="13"/>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A46" s="36"/>
+      <c r="B46" s="41"/>
+      <c r="C46" s="26"/>
+      <c r="D46" s="7"/>
+      <c r="E46" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="F46" s="13"/>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A47" s="36"/>
+      <c r="B47" s="41"/>
+      <c r="C47" s="26"/>
+      <c r="D47" s="7"/>
+      <c r="E47" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="F47" s="13"/>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A48" s="36"/>
+      <c r="B48" s="41"/>
+      <c r="C48" s="26"/>
+      <c r="D48" s="7"/>
+      <c r="E48" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="F48" s="13"/>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A49" s="36"/>
+      <c r="B49" s="41"/>
+      <c r="C49" s="26"/>
+      <c r="D49" s="7"/>
+      <c r="E49" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="F49" s="13"/>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A50" s="36"/>
+      <c r="B50" s="41"/>
+      <c r="C50" s="26"/>
+      <c r="D50" s="7"/>
+      <c r="E50" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="F50" s="13"/>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A51" s="36"/>
+      <c r="B51" s="41"/>
+      <c r="C51" s="26"/>
+      <c r="D51" s="7"/>
+      <c r="E51" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="F51" s="13"/>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A52" s="36"/>
+      <c r="B52" s="41"/>
+      <c r="C52" s="26"/>
+      <c r="D52" s="7"/>
+      <c r="E52" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="F52" s="13"/>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A53" s="36"/>
+      <c r="B53" s="41"/>
+      <c r="C53" s="26"/>
+      <c r="D53" s="7"/>
+      <c r="E53" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="F53" s="13"/>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A54" s="36"/>
+      <c r="B54" s="41"/>
+      <c r="C54" s="26"/>
+      <c r="D54" s="7"/>
+      <c r="E54" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="F54" s="13"/>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A55" s="36"/>
+      <c r="B55" s="41"/>
+      <c r="C55" s="26"/>
+      <c r="D55" s="7"/>
+      <c r="E55" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="F55" s="13"/>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A56" s="36"/>
+      <c r="B56" s="41"/>
+      <c r="C56" s="26"/>
+      <c r="D56" s="7"/>
+      <c r="E56" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="F56" s="13"/>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A57" s="36"/>
+      <c r="B57" s="41"/>
+      <c r="C57" s="26"/>
+      <c r="D57" s="7"/>
+      <c r="E57" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="F57" s="13"/>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A58" s="36"/>
+      <c r="B58" s="41"/>
+      <c r="C58" s="26"/>
+      <c r="D58" s="7"/>
+      <c r="E58" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="F58" s="13"/>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A59" s="36"/>
+      <c r="B59" s="41"/>
+      <c r="C59" s="26"/>
+      <c r="D59" s="7"/>
+      <c r="E59" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="F59" s="13"/>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A60" s="36"/>
+      <c r="B60" s="41"/>
+      <c r="C60" s="26"/>
+      <c r="D60" s="7"/>
+      <c r="E60" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="F60" s="13"/>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A61" s="36"/>
+      <c r="B61" s="41"/>
+      <c r="C61" s="26"/>
+      <c r="D61" s="7"/>
+      <c r="E61" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="F61" s="13"/>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A62" s="36"/>
+      <c r="B62" s="41"/>
+      <c r="C62" s="26"/>
+      <c r="D62" s="7"/>
+      <c r="E62" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="F62" s="13"/>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A63" s="36"/>
+      <c r="B63" s="41"/>
+      <c r="C63" s="26"/>
+      <c r="D63" s="7"/>
+      <c r="E63" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="F63" s="13"/>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A64" s="36"/>
+      <c r="B64" s="41"/>
+      <c r="C64" s="26"/>
+      <c r="D64" s="7"/>
+      <c r="E64" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="F64" s="13"/>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A65" s="36"/>
+      <c r="B65" s="41"/>
+      <c r="C65" s="26"/>
+      <c r="D65" s="7"/>
+      <c r="E65" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="F65" s="13"/>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A66" s="36"/>
+      <c r="B66" s="41"/>
+      <c r="C66" s="26"/>
+      <c r="D66" s="7"/>
+      <c r="E66" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="F66" s="13"/>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A67" s="36"/>
+      <c r="B67" s="41"/>
+      <c r="C67" s="26"/>
+      <c r="D67" s="7"/>
+      <c r="E67" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="F67" s="13"/>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A68" s="36"/>
+      <c r="B68" s="41"/>
+      <c r="C68" s="26"/>
+      <c r="D68" s="7"/>
+      <c r="E68" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="F68" s="13"/>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A69" s="36"/>
+      <c r="B69" s="41"/>
+      <c r="C69" s="26"/>
+      <c r="D69" s="7"/>
+      <c r="E69" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="F69" s="13"/>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A70" s="36"/>
+      <c r="B70" s="41"/>
+      <c r="C70" s="26"/>
+      <c r="D70" s="7"/>
+      <c r="E70" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="F70" s="13"/>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A71" s="36"/>
+      <c r="B71" s="41"/>
+      <c r="C71" s="26"/>
+      <c r="D71" s="7"/>
+      <c r="E71" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="F71" s="13"/>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A72" s="36"/>
+      <c r="B72" s="41"/>
+      <c r="C72" s="26"/>
+      <c r="D72" s="7"/>
+      <c r="E72" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="F72" s="13"/>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A73" s="36"/>
+      <c r="B73" s="41"/>
+      <c r="C73" s="26"/>
+      <c r="D73" s="7"/>
+      <c r="E73" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="F73" s="13"/>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A74" s="36"/>
+      <c r="B74" s="41"/>
+      <c r="C74" s="26"/>
+      <c r="D74" s="7"/>
+      <c r="E74" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="F74" s="13"/>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A75" s="36"/>
+      <c r="B75" s="41"/>
+      <c r="C75" s="26"/>
+      <c r="D75" s="7"/>
+      <c r="E75" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="F75" s="13"/>
+    </row>
+    <row r="76" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A76" s="42"/>
+      <c r="B76" s="41"/>
+      <c r="C76" s="27"/>
+      <c r="D76" s="19"/>
+      <c r="E76" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="F76" s="13"/>
+    </row>
+    <row r="77" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A77" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="B77" s="46" t="s">
+        <v>43</v>
+      </c>
+      <c r="C77" s="46" t="s">
+        <v>41</v>
+      </c>
+      <c r="D77" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="E77" s="43" t="s">
         <v>42</v>
       </c>
-      <c r="B30" s="18" t="s">
+      <c r="F77" s="13"/>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A78" s="39"/>
+      <c r="B78" s="47"/>
+      <c r="C78" s="47"/>
+      <c r="D78" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="E78" s="44"/>
+      <c r="F78" s="13"/>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A79" s="39"/>
+      <c r="B79" s="47"/>
+      <c r="C79" s="47"/>
+      <c r="D79" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="C30" s="2" t="s">
+      <c r="E79" s="44"/>
+      <c r="F79" s="13"/>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A80" s="39"/>
+      <c r="B80" s="47"/>
+      <c r="C80" s="47"/>
+      <c r="D80" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="D30" s="23" t="s">
+      <c r="E80" s="44"/>
+      <c r="F80" s="13"/>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A81" s="39"/>
+      <c r="B81" s="47"/>
+      <c r="C81" s="47"/>
+      <c r="D81" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="E81" s="44"/>
+      <c r="F81" s="13"/>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A82" s="39"/>
+      <c r="B82" s="47"/>
+      <c r="C82" s="47"/>
+      <c r="D82" s="22" t="s">
+        <v>80</v>
+      </c>
+      <c r="E82" s="44"/>
+      <c r="F82" s="13"/>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A83" s="39"/>
+      <c r="B83" s="47"/>
+      <c r="C83" s="47"/>
+      <c r="D83" s="22" t="s">
+        <v>82</v>
+      </c>
+      <c r="E83" s="44"/>
+      <c r="F83" s="13"/>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A84" s="40"/>
+      <c r="B84" s="48"/>
+      <c r="C84" s="48"/>
+      <c r="D84" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="E84" s="45"/>
+      <c r="F84" s="13"/>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A85" s="35" t="s">
+        <v>37</v>
+      </c>
+      <c r="B85" s="32" t="s">
+        <v>75</v>
+      </c>
+      <c r="C85" s="32" t="s">
+        <v>76</v>
+      </c>
+      <c r="D85" s="6"/>
+      <c r="E85" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="E30" s="3" t="s">
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A86" s="36"/>
+      <c r="B86" s="33"/>
+      <c r="C86" s="33"/>
+      <c r="D86" s="18" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A31" s="1"/>
-      <c r="B31" s="18"/>
-      <c r="C31" s="2"/>
-      <c r="D31" s="23" t="s">
-        <v>22</v>
-      </c>
-      <c r="E31" s="3" t="s">
+      <c r="E86" s="21" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A87" s="36"/>
+      <c r="B87" s="33"/>
+      <c r="C87" s="33"/>
+      <c r="D87" s="18" t="s">
+        <v>77</v>
+      </c>
+      <c r="E87" s="21" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A88" s="36"/>
+      <c r="B88" s="33"/>
+      <c r="C88" s="33"/>
+      <c r="D88" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="E88" s="21" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A89" s="36"/>
+      <c r="B89" s="33"/>
+      <c r="C89" s="33"/>
+      <c r="D89" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="E89" s="21" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A90" s="37"/>
+      <c r="B90" s="34"/>
+      <c r="C90" s="34"/>
+      <c r="D90" s="9"/>
+      <c r="E90" s="17"/>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A91" s="35" t="s">
+        <v>37</v>
+      </c>
+      <c r="B91" s="32" t="s">
+        <v>85</v>
+      </c>
+      <c r="C91" s="32" t="s">
+        <v>86</v>
+      </c>
+      <c r="D91" s="25" t="s">
+        <v>26</v>
+      </c>
+      <c r="E91" s="20" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A92" s="36"/>
+      <c r="B92" s="33"/>
+      <c r="C92" s="33"/>
+      <c r="D92" s="26"/>
+      <c r="E92" s="21" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A93" s="36"/>
+      <c r="B93" s="33"/>
+      <c r="C93" s="33"/>
+      <c r="D93" s="26"/>
+      <c r="E93" s="21" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A94" s="36"/>
+      <c r="B94" s="33"/>
+      <c r="C94" s="33"/>
+      <c r="D94" s="26"/>
+      <c r="E94" s="21" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A95" s="36"/>
+      <c r="B95" s="33"/>
+      <c r="C95" s="33"/>
+      <c r="D95" s="26"/>
+      <c r="E95" s="21" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A96" s="37"/>
+      <c r="B96" s="34"/>
+      <c r="C96" s="34"/>
+      <c r="D96" s="31"/>
+      <c r="E96" s="17"/>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A97" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="B97" s="25" t="s">
+        <v>83</v>
+      </c>
+      <c r="C97" s="28" t="s">
+        <v>44</v>
+      </c>
+      <c r="D97" s="25" t="s">
+        <v>26</v>
+      </c>
+      <c r="E97" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A98" s="23"/>
+      <c r="B98" s="26"/>
+      <c r="C98" s="29"/>
+      <c r="D98" s="26"/>
+      <c r="E98" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A32" s="1"/>
-      <c r="B32" s="18"/>
-      <c r="C32" s="2"/>
-      <c r="D32" s="23" t="s">
-        <v>23</v>
-      </c>
-      <c r="E32" s="3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A33" s="1"/>
-      <c r="B33" s="18"/>
-      <c r="C33" s="2"/>
-      <c r="D33" s="23" t="s">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A99" s="23"/>
+      <c r="B99" s="26"/>
+      <c r="C99" s="29"/>
+      <c r="D99" s="26"/>
+      <c r="E99" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A100" s="23"/>
+      <c r="B100" s="26"/>
+      <c r="C100" s="29"/>
+      <c r="D100" s="26"/>
+      <c r="E100" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A101" s="24"/>
+      <c r="B101" s="27"/>
+      <c r="C101" s="30"/>
+      <c r="D101" s="27"/>
+      <c r="E101" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E33" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A34" s="1"/>
-      <c r="B34" s="18"/>
-      <c r="C34" s="2"/>
-      <c r="D34" s="23"/>
-      <c r="E34" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A35" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="B35" s="20" t="s">
-        <v>50</v>
-      </c>
-      <c r="C35" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="D35" s="24" t="s">
-        <v>5</v>
-      </c>
-      <c r="E35" s="16" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A36" s="4"/>
-      <c r="B36" s="21"/>
-      <c r="C36" s="5"/>
-      <c r="D36" s="23" t="s">
-        <v>43</v>
-      </c>
-      <c r="E36" s="6"/>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A37" s="4"/>
-      <c r="B37" s="21"/>
-      <c r="C37" s="5"/>
-      <c r="D37" s="23" t="s">
-        <v>44</v>
-      </c>
-      <c r="E37" s="6"/>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A38" s="4"/>
-      <c r="B38" s="21"/>
-      <c r="C38" s="5"/>
-      <c r="D38" s="23" t="s">
-        <v>45</v>
-      </c>
-      <c r="E38" s="6"/>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A39" s="4"/>
-      <c r="B39" s="21"/>
-      <c r="C39" s="5"/>
-      <c r="D39" s="23" t="s">
-        <v>46</v>
-      </c>
-      <c r="E39" s="6"/>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A40" s="40"/>
-      <c r="B40" s="37"/>
-      <c r="C40" s="38"/>
-      <c r="D40" s="25" t="s">
-        <v>15</v>
-      </c>
-      <c r="E40" s="39"/>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A41" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B41" s="18" t="s">
-        <v>49</v>
-      </c>
-      <c r="C41" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="D41" s="18" t="s">
-        <v>52</v>
-      </c>
-      <c r="E41" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A42" s="1"/>
-      <c r="B42" s="18"/>
-      <c r="C42" s="2"/>
-      <c r="D42" s="18"/>
-      <c r="E42" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A43" s="1"/>
-      <c r="B43" s="18"/>
-      <c r="C43" s="2"/>
-      <c r="D43" s="18"/>
-      <c r="E43" s="3" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A44" s="1"/>
-      <c r="B44" s="18"/>
-      <c r="C44" s="2"/>
-      <c r="D44" s="18"/>
-      <c r="E44" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A45" s="7"/>
-      <c r="B45" s="18"/>
-      <c r="C45" s="8"/>
-      <c r="D45" s="18"/>
-      <c r="E45" s="9" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B46" s="15"/>
-      <c r="D46" s="15"/>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="E47" s="41" t="s">
-        <v>54</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="24">
-    <mergeCell ref="A41:A45"/>
-    <mergeCell ref="B41:B45"/>
-    <mergeCell ref="C41:C45"/>
-    <mergeCell ref="D41:D45"/>
-    <mergeCell ref="A30:A34"/>
-    <mergeCell ref="B30:B34"/>
-    <mergeCell ref="C30:C34"/>
-    <mergeCell ref="A35:A40"/>
-    <mergeCell ref="B35:B40"/>
-    <mergeCell ref="E35:E40"/>
-    <mergeCell ref="C35:C40"/>
+  <mergeCells count="35">
+    <mergeCell ref="C91:C96"/>
+    <mergeCell ref="D91:D96"/>
+    <mergeCell ref="C2:C12"/>
+    <mergeCell ref="B2:B12"/>
+    <mergeCell ref="A2:A12"/>
+    <mergeCell ref="C13:C17"/>
+    <mergeCell ref="B13:B17"/>
+    <mergeCell ref="A13:A17"/>
+    <mergeCell ref="E77:E84"/>
+    <mergeCell ref="C77:C84"/>
+    <mergeCell ref="B77:B84"/>
     <mergeCell ref="A18:A22"/>
     <mergeCell ref="B18:B22"/>
     <mergeCell ref="C18:C22"/>
@@ -1437,12 +2178,23 @@
     <mergeCell ref="A23:A29"/>
     <mergeCell ref="B23:B29"/>
     <mergeCell ref="C23:C29"/>
-    <mergeCell ref="C2:C12"/>
-    <mergeCell ref="B2:B12"/>
-    <mergeCell ref="A2:A12"/>
-    <mergeCell ref="C13:C17"/>
-    <mergeCell ref="B13:B17"/>
-    <mergeCell ref="A13:A17"/>
+    <mergeCell ref="D30:D34"/>
+    <mergeCell ref="A97:A101"/>
+    <mergeCell ref="B97:B101"/>
+    <mergeCell ref="C97:C101"/>
+    <mergeCell ref="D97:D101"/>
+    <mergeCell ref="A30:A34"/>
+    <mergeCell ref="B30:B34"/>
+    <mergeCell ref="C30:C34"/>
+    <mergeCell ref="C85:C90"/>
+    <mergeCell ref="B85:B90"/>
+    <mergeCell ref="A85:A90"/>
+    <mergeCell ref="A77:A84"/>
+    <mergeCell ref="C35:C76"/>
+    <mergeCell ref="B35:B76"/>
+    <mergeCell ref="A35:A76"/>
+    <mergeCell ref="A91:A96"/>
+    <mergeCell ref="B91:B96"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/API - Irene Nurintan.xlsx
+++ b/API - Irene Nurintan.xlsx
@@ -251,9 +251,6 @@
     <t>    "end_mutasi": "2020-12-25"</t>
   </si>
   <si>
-    <t>8990/dum/login</t>
-  </si>
-  <si>
     <t>Login user dummy</t>
   </si>
   <si>
@@ -275,19 +272,22 @@
     <t xml:space="preserve">    "password":"cangtipsekali"</t>
   </si>
   <si>
-    <t>8990/dum/saldo/{username}</t>
-  </si>
-  <si>
     <t>8080/logout/{username}</t>
   </si>
   <si>
-    <t>8990/dum/logout/{username}</t>
-  </si>
-  <si>
     <t>Logout user dummy</t>
   </si>
   <si>
     <t>    "message": "Success Logout",</t>
+  </si>
+  <si>
+    <t>8990/transfer/logout/{username}</t>
+  </si>
+  <si>
+    <t>8990/transfer/login</t>
+  </si>
+  <si>
+    <t>8990/transfer/saldo/{username}</t>
   </si>
 </sst>
 </file>
@@ -663,7 +663,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
@@ -705,42 +705,66 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -759,35 +783,26 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1071,14 +1086,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A87" workbookViewId="0">
-      <selection activeCell="E104" sqref="E104"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="16.6328125" customWidth="1"/>
-    <col min="2" max="2" width="27" customWidth="1"/>
+    <col min="2" max="2" width="31.453125" style="55" customWidth="1"/>
     <col min="3" max="3" width="24.453125" customWidth="1"/>
     <col min="4" max="4" width="37.7265625" customWidth="1"/>
     <col min="5" max="5" width="52.1796875" customWidth="1"/>
@@ -1088,7 +1103,7 @@
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="53" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="4" t="s">
@@ -1102,10 +1117,10 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A2" s="23" t="s">
+      <c r="A2" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="26" t="s">
+      <c r="B2" s="37" t="s">
         <v>46</v>
       </c>
       <c r="C2" s="29" t="s">
@@ -1117,8 +1132,8 @@
       <c r="E2" s="1"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A3" s="23"/>
-      <c r="B3" s="26"/>
+      <c r="A3" s="31"/>
+      <c r="B3" s="37"/>
       <c r="C3" s="29"/>
       <c r="D3" s="7" t="s">
         <v>6</v>
@@ -1126,8 +1141,8 @@
       <c r="E3" s="1"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A4" s="23"/>
-      <c r="B4" s="26"/>
+      <c r="A4" s="31"/>
+      <c r="B4" s="37"/>
       <c r="C4" s="29"/>
       <c r="D4" s="7" t="s">
         <v>7</v>
@@ -1137,8 +1152,8 @@
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A5" s="23"/>
-      <c r="B5" s="26"/>
+      <c r="A5" s="31"/>
+      <c r="B5" s="37"/>
       <c r="C5" s="29"/>
       <c r="D5" s="7" t="s">
         <v>8</v>
@@ -1148,8 +1163,8 @@
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A6" s="23"/>
-      <c r="B6" s="26"/>
+      <c r="A6" s="31"/>
+      <c r="B6" s="37"/>
       <c r="C6" s="29"/>
       <c r="D6" s="7" t="s">
         <v>9</v>
@@ -1159,8 +1174,8 @@
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A7" s="23"/>
-      <c r="B7" s="26"/>
+      <c r="A7" s="31"/>
+      <c r="B7" s="37"/>
       <c r="C7" s="29"/>
       <c r="D7" s="7" t="s">
         <v>10</v>
@@ -1170,8 +1185,8 @@
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A8" s="23"/>
-      <c r="B8" s="26"/>
+      <c r="A8" s="31"/>
+      <c r="B8" s="37"/>
       <c r="C8" s="29"/>
       <c r="D8" s="7" t="s">
         <v>11</v>
@@ -1181,8 +1196,8 @@
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A9" s="23"/>
-      <c r="B9" s="26"/>
+      <c r="A9" s="31"/>
+      <c r="B9" s="37"/>
       <c r="C9" s="29"/>
       <c r="D9" s="7" t="s">
         <v>12</v>
@@ -1190,8 +1205,8 @@
       <c r="E9" s="1"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A10" s="23"/>
-      <c r="B10" s="26"/>
+      <c r="A10" s="31"/>
+      <c r="B10" s="37"/>
       <c r="C10" s="29"/>
       <c r="D10" s="7" t="s">
         <v>13</v>
@@ -1199,8 +1214,8 @@
       <c r="E10" s="1"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A11" s="23"/>
-      <c r="B11" s="26"/>
+      <c r="A11" s="31"/>
+      <c r="B11" s="37"/>
       <c r="C11" s="29"/>
       <c r="D11" s="7" t="s">
         <v>14</v>
@@ -1208,19 +1223,19 @@
       <c r="E11" s="1"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A12" s="49"/>
-      <c r="B12" s="31"/>
-      <c r="C12" s="50"/>
+      <c r="A12" s="32"/>
+      <c r="B12" s="38"/>
+      <c r="C12" s="30"/>
       <c r="D12" s="9" t="s">
         <v>15</v>
       </c>
       <c r="E12" s="11"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A13" s="23" t="s">
+      <c r="A13" s="31" t="s">
         <v>37</v>
       </c>
-      <c r="B13" s="26" t="s">
+      <c r="B13" s="37" t="s">
         <v>47</v>
       </c>
       <c r="C13" s="29" t="s">
@@ -1234,8 +1249,8 @@
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A14" s="23"/>
-      <c r="B14" s="26"/>
+      <c r="A14" s="31"/>
+      <c r="B14" s="37"/>
       <c r="C14" s="29"/>
       <c r="D14" s="7" t="s">
         <v>21</v>
@@ -1245,8 +1260,8 @@
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A15" s="23"/>
-      <c r="B15" s="26"/>
+      <c r="A15" s="31"/>
+      <c r="B15" s="37"/>
       <c r="C15" s="29"/>
       <c r="D15" s="7" t="s">
         <v>22</v>
@@ -1256,8 +1271,8 @@
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A16" s="23"/>
-      <c r="B16" s="26"/>
+      <c r="A16" s="31"/>
+      <c r="B16" s="37"/>
       <c r="C16" s="29"/>
       <c r="D16" s="7" t="s">
         <v>15</v>
@@ -1267,25 +1282,25 @@
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A17" s="49"/>
-      <c r="B17" s="31"/>
-      <c r="C17" s="50"/>
+      <c r="A17" s="32"/>
+      <c r="B17" s="38"/>
+      <c r="C17" s="30"/>
       <c r="D17" s="9"/>
       <c r="E17" s="11" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A18" s="23" t="s">
+      <c r="A18" s="31" t="s">
         <v>28</v>
       </c>
-      <c r="B18" s="26" t="s">
+      <c r="B18" s="37" t="s">
         <v>48</v>
       </c>
       <c r="C18" s="29" t="s">
         <v>25</v>
       </c>
-      <c r="D18" s="26" t="s">
+      <c r="D18" s="27" t="s">
         <v>26</v>
       </c>
       <c r="E18" s="1" t="s">
@@ -1293,49 +1308,49 @@
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A19" s="23"/>
-      <c r="B19" s="26"/>
+      <c r="A19" s="31"/>
+      <c r="B19" s="37"/>
       <c r="C19" s="29"/>
-      <c r="D19" s="26"/>
+      <c r="D19" s="27"/>
       <c r="E19" s="1" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A20" s="23"/>
-      <c r="B20" s="26"/>
+      <c r="A20" s="31"/>
+      <c r="B20" s="37"/>
       <c r="C20" s="29"/>
-      <c r="D20" s="26"/>
+      <c r="D20" s="27"/>
       <c r="E20" s="1" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A21" s="23"/>
-      <c r="B21" s="26"/>
+      <c r="A21" s="31"/>
+      <c r="B21" s="37"/>
       <c r="C21" s="29"/>
-      <c r="D21" s="26"/>
+      <c r="D21" s="27"/>
       <c r="E21" s="1" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A22" s="49"/>
-      <c r="B22" s="31"/>
-      <c r="C22" s="50"/>
-      <c r="D22" s="31"/>
+      <c r="A22" s="32"/>
+      <c r="B22" s="38"/>
+      <c r="C22" s="30"/>
+      <c r="D22" s="28"/>
       <c r="E22" s="11" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A23" s="32" t="s">
+      <c r="A23" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="B23" s="25" t="s">
+      <c r="B23" s="51" t="s">
         <v>49</v>
       </c>
-      <c r="C23" s="28" t="s">
+      <c r="C23" s="39" t="s">
         <v>29</v>
       </c>
       <c r="D23" s="6" t="s">
@@ -1344,8 +1359,8 @@
       <c r="E23" s="15"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A24" s="33"/>
-      <c r="B24" s="26"/>
+      <c r="A24" s="24"/>
+      <c r="B24" s="37"/>
       <c r="C24" s="29"/>
       <c r="D24" s="7" t="s">
         <v>30</v>
@@ -1355,8 +1370,8 @@
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A25" s="33"/>
-      <c r="B25" s="26"/>
+      <c r="A25" s="24"/>
+      <c r="B25" s="37"/>
       <c r="C25" s="29"/>
       <c r="D25" s="7" t="s">
         <v>21</v>
@@ -1366,8 +1381,8 @@
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A26" s="33"/>
-      <c r="B26" s="26"/>
+      <c r="A26" s="24"/>
+      <c r="B26" s="37"/>
       <c r="C26" s="29"/>
       <c r="D26" s="7" t="s">
         <v>31</v>
@@ -1377,8 +1392,8 @@
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A27" s="33"/>
-      <c r="B27" s="26"/>
+      <c r="A27" s="24"/>
+      <c r="B27" s="37"/>
       <c r="C27" s="29"/>
       <c r="D27" s="7" t="s">
         <v>32</v>
@@ -1388,8 +1403,8 @@
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A28" s="33"/>
-      <c r="B28" s="26"/>
+      <c r="A28" s="24"/>
+      <c r="B28" s="37"/>
       <c r="C28" s="29"/>
       <c r="D28" s="7" t="s">
         <v>33</v>
@@ -1399,25 +1414,25 @@
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A29" s="34"/>
-      <c r="B29" s="31"/>
-      <c r="C29" s="50"/>
+      <c r="A29" s="25"/>
+      <c r="B29" s="38"/>
+      <c r="C29" s="30"/>
       <c r="D29" s="9" t="s">
         <v>15</v>
       </c>
       <c r="E29" s="17"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A30" s="23" t="s">
+      <c r="A30" s="31" t="s">
         <v>37</v>
       </c>
-      <c r="B30" s="25" t="s">
-        <v>84</v>
+      <c r="B30" s="51" t="s">
+        <v>82</v>
       </c>
       <c r="C30" s="29" t="s">
         <v>35</v>
       </c>
-      <c r="D30" s="26" t="s">
+      <c r="D30" s="27" t="s">
         <v>26</v>
       </c>
       <c r="E30" s="16" t="s">
@@ -1425,49 +1440,49 @@
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A31" s="23"/>
-      <c r="B31" s="26"/>
+      <c r="A31" s="31"/>
+      <c r="B31" s="37"/>
       <c r="C31" s="29"/>
-      <c r="D31" s="26"/>
+      <c r="D31" s="27"/>
       <c r="E31" s="16" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A32" s="23"/>
-      <c r="B32" s="26"/>
+      <c r="A32" s="31"/>
+      <c r="B32" s="37"/>
       <c r="C32" s="29"/>
-      <c r="D32" s="26"/>
+      <c r="D32" s="27"/>
       <c r="E32" s="1" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A33" s="23"/>
-      <c r="B33" s="26"/>
+      <c r="A33" s="31"/>
+      <c r="B33" s="37"/>
       <c r="C33" s="29"/>
-      <c r="D33" s="26"/>
+      <c r="D33" s="27"/>
       <c r="E33" s="1" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A34" s="23"/>
-      <c r="B34" s="31"/>
+      <c r="A34" s="31"/>
+      <c r="B34" s="38"/>
       <c r="C34" s="29"/>
-      <c r="D34" s="31"/>
+      <c r="D34" s="28"/>
       <c r="E34" s="17" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A35" s="35" t="s">
+      <c r="A35" s="43" t="s">
         <v>20</v>
       </c>
-      <c r="B35" s="41" t="s">
+      <c r="B35" s="54" t="s">
         <v>71</v>
       </c>
-      <c r="C35" s="25" t="s">
+      <c r="C35" s="26" t="s">
         <v>70</v>
       </c>
       <c r="D35" s="6"/>
@@ -1476,18 +1491,18 @@
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A36" s="36"/>
-      <c r="B36" s="41"/>
-      <c r="C36" s="26"/>
+      <c r="A36" s="44"/>
+      <c r="B36" s="54"/>
+      <c r="C36" s="27"/>
       <c r="D36" s="7"/>
       <c r="E36" s="14" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A37" s="36"/>
-      <c r="B37" s="41"/>
-      <c r="C37" s="26"/>
+      <c r="A37" s="44"/>
+      <c r="B37" s="54"/>
+      <c r="C37" s="27"/>
       <c r="D37" s="18" t="s">
         <v>5</v>
       </c>
@@ -1496,9 +1511,9 @@
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A38" s="36"/>
-      <c r="B38" s="41"/>
-      <c r="C38" s="26"/>
+      <c r="A38" s="44"/>
+      <c r="B38" s="54"/>
+      <c r="C38" s="27"/>
       <c r="D38" s="18" t="s">
         <v>72</v>
       </c>
@@ -1507,9 +1522,9 @@
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A39" s="36"/>
-      <c r="B39" s="41"/>
-      <c r="C39" s="26"/>
+      <c r="A39" s="44"/>
+      <c r="B39" s="54"/>
+      <c r="C39" s="27"/>
       <c r="D39" s="18" t="s">
         <v>73</v>
       </c>
@@ -1518,9 +1533,9 @@
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A40" s="36"/>
-      <c r="B40" s="41"/>
-      <c r="C40" s="26"/>
+      <c r="A40" s="44"/>
+      <c r="B40" s="54"/>
+      <c r="C40" s="27"/>
       <c r="D40" s="18" t="s">
         <v>74</v>
       </c>
@@ -1530,9 +1545,9 @@
       <c r="F40" s="13"/>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A41" s="36"/>
-      <c r="B41" s="41"/>
-      <c r="C41" s="26"/>
+      <c r="A41" s="44"/>
+      <c r="B41" s="54"/>
+      <c r="C41" s="27"/>
       <c r="D41" s="18" t="s">
         <v>15</v>
       </c>
@@ -1542,9 +1557,9 @@
       <c r="F41" s="13"/>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A42" s="36"/>
-      <c r="B42" s="41"/>
-      <c r="C42" s="26"/>
+      <c r="A42" s="44"/>
+      <c r="B42" s="54"/>
+      <c r="C42" s="27"/>
       <c r="D42" s="7"/>
       <c r="E42" s="12" t="s">
         <v>59</v>
@@ -1552,9 +1567,9 @@
       <c r="F42" s="13"/>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A43" s="36"/>
-      <c r="B43" s="41"/>
-      <c r="C43" s="26"/>
+      <c r="A43" s="44"/>
+      <c r="B43" s="54"/>
+      <c r="C43" s="27"/>
       <c r="D43" s="7"/>
       <c r="E43" s="12" t="s">
         <v>51</v>
@@ -1562,9 +1577,9 @@
       <c r="F43" s="13"/>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A44" s="36"/>
-      <c r="B44" s="41"/>
-      <c r="C44" s="26"/>
+      <c r="A44" s="44"/>
+      <c r="B44" s="54"/>
+      <c r="C44" s="27"/>
       <c r="D44" s="7"/>
       <c r="E44" s="12" t="s">
         <v>50</v>
@@ -1572,9 +1587,9 @@
       <c r="F44" s="13"/>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A45" s="36"/>
-      <c r="B45" s="41"/>
-      <c r="C45" s="26"/>
+      <c r="A45" s="44"/>
+      <c r="B45" s="54"/>
+      <c r="C45" s="27"/>
       <c r="D45" s="7"/>
       <c r="E45" s="12" t="s">
         <v>55</v>
@@ -1582,9 +1597,9 @@
       <c r="F45" s="13"/>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A46" s="36"/>
-      <c r="B46" s="41"/>
-      <c r="C46" s="26"/>
+      <c r="A46" s="44"/>
+      <c r="B46" s="54"/>
+      <c r="C46" s="27"/>
       <c r="D46" s="7"/>
       <c r="E46" s="12" t="s">
         <v>56</v>
@@ -1592,9 +1607,9 @@
       <c r="F46" s="13"/>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A47" s="36"/>
-      <c r="B47" s="41"/>
-      <c r="C47" s="26"/>
+      <c r="A47" s="44"/>
+      <c r="B47" s="54"/>
+      <c r="C47" s="27"/>
       <c r="D47" s="7"/>
       <c r="E47" s="12" t="s">
         <v>60</v>
@@ -1602,9 +1617,9 @@
       <c r="F47" s="13"/>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A48" s="36"/>
-      <c r="B48" s="41"/>
-      <c r="C48" s="26"/>
+      <c r="A48" s="44"/>
+      <c r="B48" s="54"/>
+      <c r="C48" s="27"/>
       <c r="D48" s="7"/>
       <c r="E48" s="12" t="s">
         <v>61</v>
@@ -1612,9 +1627,9 @@
       <c r="F48" s="13"/>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A49" s="36"/>
-      <c r="B49" s="41"/>
-      <c r="C49" s="26"/>
+      <c r="A49" s="44"/>
+      <c r="B49" s="54"/>
+      <c r="C49" s="27"/>
       <c r="D49" s="7"/>
       <c r="E49" s="12" t="s">
         <v>62</v>
@@ -1622,9 +1637,9 @@
       <c r="F49" s="13"/>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A50" s="36"/>
-      <c r="B50" s="41"/>
-      <c r="C50" s="26"/>
+      <c r="A50" s="44"/>
+      <c r="B50" s="54"/>
+      <c r="C50" s="27"/>
       <c r="D50" s="7"/>
       <c r="E50" s="12" t="s">
         <v>51</v>
@@ -1632,9 +1647,9 @@
       <c r="F50" s="13"/>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A51" s="36"/>
-      <c r="B51" s="41"/>
-      <c r="C51" s="26"/>
+      <c r="A51" s="44"/>
+      <c r="B51" s="54"/>
+      <c r="C51" s="27"/>
       <c r="D51" s="7"/>
       <c r="E51" s="12" t="s">
         <v>50</v>
@@ -1642,9 +1657,9 @@
       <c r="F51" s="13"/>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A52" s="36"/>
-      <c r="B52" s="41"/>
-      <c r="C52" s="26"/>
+      <c r="A52" s="44"/>
+      <c r="B52" s="54"/>
+      <c r="C52" s="27"/>
       <c r="D52" s="7"/>
       <c r="E52" s="12" t="s">
         <v>55</v>
@@ -1652,9 +1667,9 @@
       <c r="F52" s="13"/>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A53" s="36"/>
-      <c r="B53" s="41"/>
-      <c r="C53" s="26"/>
+      <c r="A53" s="44"/>
+      <c r="B53" s="54"/>
+      <c r="C53" s="27"/>
       <c r="D53" s="7"/>
       <c r="E53" s="12" t="s">
         <v>56</v>
@@ -1662,9 +1677,9 @@
       <c r="F53" s="13"/>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A54" s="36"/>
-      <c r="B54" s="41"/>
-      <c r="C54" s="26"/>
+      <c r="A54" s="44"/>
+      <c r="B54" s="54"/>
+      <c r="C54" s="27"/>
       <c r="D54" s="7"/>
       <c r="E54" s="12" t="s">
         <v>60</v>
@@ -1672,9 +1687,9 @@
       <c r="F54" s="13"/>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A55" s="36"/>
-      <c r="B55" s="41"/>
-      <c r="C55" s="26"/>
+      <c r="A55" s="44"/>
+      <c r="B55" s="54"/>
+      <c r="C55" s="27"/>
       <c r="D55" s="7"/>
       <c r="E55" s="12" t="s">
         <v>63</v>
@@ -1682,9 +1697,9 @@
       <c r="F55" s="13"/>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A56" s="36"/>
-      <c r="B56" s="41"/>
-      <c r="C56" s="26"/>
+      <c r="A56" s="44"/>
+      <c r="B56" s="54"/>
+      <c r="C56" s="27"/>
       <c r="D56" s="7"/>
       <c r="E56" s="12" t="s">
         <v>64</v>
@@ -1692,9 +1707,9 @@
       <c r="F56" s="13"/>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A57" s="36"/>
-      <c r="B57" s="41"/>
-      <c r="C57" s="26"/>
+      <c r="A57" s="44"/>
+      <c r="B57" s="54"/>
+      <c r="C57" s="27"/>
       <c r="D57" s="7"/>
       <c r="E57" s="12" t="s">
         <v>51</v>
@@ -1702,9 +1717,9 @@
       <c r="F57" s="13"/>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A58" s="36"/>
-      <c r="B58" s="41"/>
-      <c r="C58" s="26"/>
+      <c r="A58" s="44"/>
+      <c r="B58" s="54"/>
+      <c r="C58" s="27"/>
       <c r="D58" s="7"/>
       <c r="E58" s="12" t="s">
         <v>50</v>
@@ -1712,9 +1727,9 @@
       <c r="F58" s="13"/>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A59" s="36"/>
-      <c r="B59" s="41"/>
-      <c r="C59" s="26"/>
+      <c r="A59" s="44"/>
+      <c r="B59" s="54"/>
+      <c r="C59" s="27"/>
       <c r="D59" s="7"/>
       <c r="E59" s="12" t="s">
         <v>55</v>
@@ -1722,9 +1737,9 @@
       <c r="F59" s="13"/>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A60" s="36"/>
-      <c r="B60" s="41"/>
-      <c r="C60" s="26"/>
+      <c r="A60" s="44"/>
+      <c r="B60" s="54"/>
+      <c r="C60" s="27"/>
       <c r="D60" s="7"/>
       <c r="E60" s="12" t="s">
         <v>65</v>
@@ -1732,9 +1747,9 @@
       <c r="F60" s="13"/>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A61" s="36"/>
-      <c r="B61" s="41"/>
-      <c r="C61" s="26"/>
+      <c r="A61" s="44"/>
+      <c r="B61" s="54"/>
+      <c r="C61" s="27"/>
       <c r="D61" s="7"/>
       <c r="E61" s="12" t="s">
         <v>60</v>
@@ -1742,9 +1757,9 @@
       <c r="F61" s="13"/>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A62" s="36"/>
-      <c r="B62" s="41"/>
-      <c r="C62" s="26"/>
+      <c r="A62" s="44"/>
+      <c r="B62" s="54"/>
+      <c r="C62" s="27"/>
       <c r="D62" s="7"/>
       <c r="E62" s="12" t="s">
         <v>61</v>
@@ -1752,9 +1767,9 @@
       <c r="F62" s="13"/>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A63" s="36"/>
-      <c r="B63" s="41"/>
-      <c r="C63" s="26"/>
+      <c r="A63" s="44"/>
+      <c r="B63" s="54"/>
+      <c r="C63" s="27"/>
       <c r="D63" s="7"/>
       <c r="E63" s="12" t="s">
         <v>66</v>
@@ -1762,9 +1777,9 @@
       <c r="F63" s="13"/>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A64" s="36"/>
-      <c r="B64" s="41"/>
-      <c r="C64" s="26"/>
+      <c r="A64" s="44"/>
+      <c r="B64" s="54"/>
+      <c r="C64" s="27"/>
       <c r="D64" s="7"/>
       <c r="E64" s="12" t="s">
         <v>51</v>
@@ -1772,9 +1787,9 @@
       <c r="F64" s="13"/>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A65" s="36"/>
-      <c r="B65" s="41"/>
-      <c r="C65" s="26"/>
+      <c r="A65" s="44"/>
+      <c r="B65" s="54"/>
+      <c r="C65" s="27"/>
       <c r="D65" s="7"/>
       <c r="E65" s="12" t="s">
         <v>50</v>
@@ -1782,9 +1797,9 @@
       <c r="F65" s="13"/>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A66" s="36"/>
-      <c r="B66" s="41"/>
-      <c r="C66" s="26"/>
+      <c r="A66" s="44"/>
+      <c r="B66" s="54"/>
+      <c r="C66" s="27"/>
       <c r="D66" s="7"/>
       <c r="E66" s="12" t="s">
         <v>55</v>
@@ -1792,9 +1807,9 @@
       <c r="F66" s="13"/>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A67" s="36"/>
-      <c r="B67" s="41"/>
-      <c r="C67" s="26"/>
+      <c r="A67" s="44"/>
+      <c r="B67" s="54"/>
+      <c r="C67" s="27"/>
       <c r="D67" s="7"/>
       <c r="E67" s="12" t="s">
         <v>56</v>
@@ -1802,9 +1817,9 @@
       <c r="F67" s="13"/>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A68" s="36"/>
-      <c r="B68" s="41"/>
-      <c r="C68" s="26"/>
+      <c r="A68" s="44"/>
+      <c r="B68" s="54"/>
+      <c r="C68" s="27"/>
       <c r="D68" s="7"/>
       <c r="E68" s="12" t="s">
         <v>60</v>
@@ -1812,9 +1827,9 @@
       <c r="F68" s="13"/>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A69" s="36"/>
-      <c r="B69" s="41"/>
-      <c r="C69" s="26"/>
+      <c r="A69" s="44"/>
+      <c r="B69" s="54"/>
+      <c r="C69" s="27"/>
       <c r="D69" s="7"/>
       <c r="E69" s="12" t="s">
         <v>63</v>
@@ -1822,9 +1837,9 @@
       <c r="F69" s="13"/>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A70" s="36"/>
-      <c r="B70" s="41"/>
-      <c r="C70" s="26"/>
+      <c r="A70" s="44"/>
+      <c r="B70" s="54"/>
+      <c r="C70" s="27"/>
       <c r="D70" s="7"/>
       <c r="E70" s="12" t="s">
         <v>64</v>
@@ -1832,9 +1847,9 @@
       <c r="F70" s="13"/>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A71" s="36"/>
-      <c r="B71" s="41"/>
-      <c r="C71" s="26"/>
+      <c r="A71" s="44"/>
+      <c r="B71" s="54"/>
+      <c r="C71" s="27"/>
       <c r="D71" s="7"/>
       <c r="E71" s="12" t="s">
         <v>52</v>
@@ -1842,9 +1857,9 @@
       <c r="F71" s="13"/>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A72" s="36"/>
-      <c r="B72" s="41"/>
-      <c r="C72" s="26"/>
+      <c r="A72" s="44"/>
+      <c r="B72" s="54"/>
+      <c r="C72" s="27"/>
       <c r="D72" s="7"/>
       <c r="E72" s="12" t="s">
         <v>53</v>
@@ -1852,9 +1867,9 @@
       <c r="F72" s="13"/>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A73" s="36"/>
-      <c r="B73" s="41"/>
-      <c r="C73" s="26"/>
+      <c r="A73" s="44"/>
+      <c r="B73" s="54"/>
+      <c r="C73" s="27"/>
       <c r="D73" s="7"/>
       <c r="E73" s="12" t="s">
         <v>67</v>
@@ -1862,9 +1877,9 @@
       <c r="F73" s="13"/>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A74" s="36"/>
-      <c r="B74" s="41"/>
-      <c r="C74" s="26"/>
+      <c r="A74" s="44"/>
+      <c r="B74" s="54"/>
+      <c r="C74" s="27"/>
       <c r="D74" s="7"/>
       <c r="E74" s="12" t="s">
         <v>68</v>
@@ -1872,9 +1887,9 @@
       <c r="F74" s="13"/>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A75" s="36"/>
-      <c r="B75" s="41"/>
-      <c r="C75" s="26"/>
+      <c r="A75" s="44"/>
+      <c r="B75" s="54"/>
+      <c r="C75" s="27"/>
       <c r="D75" s="7"/>
       <c r="E75" s="12" t="s">
         <v>69</v>
@@ -1882,9 +1897,9 @@
       <c r="F75" s="13"/>
     </row>
     <row r="76" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A76" s="42"/>
-      <c r="B76" s="41"/>
-      <c r="C76" s="27"/>
+      <c r="A76" s="49"/>
+      <c r="B76" s="54"/>
+      <c r="C76" s="41"/>
       <c r="D76" s="19"/>
       <c r="E76" s="12" t="s">
         <v>15</v>
@@ -1892,102 +1907,102 @@
       <c r="F76" s="13"/>
     </row>
     <row r="77" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A77" s="38" t="s">
+      <c r="A77" s="46" t="s">
         <v>20</v>
       </c>
-      <c r="B77" s="46" t="s">
+      <c r="B77" s="36" t="s">
         <v>43</v>
       </c>
-      <c r="C77" s="46" t="s">
+      <c r="C77" s="36" t="s">
         <v>41</v>
       </c>
       <c r="D77" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="E77" s="43" t="s">
+      <c r="E77" s="33" t="s">
         <v>42</v>
       </c>
       <c r="F77" s="13"/>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A78" s="39"/>
-      <c r="B78" s="47"/>
-      <c r="C78" s="47"/>
+      <c r="A78" s="47"/>
+      <c r="B78" s="37"/>
+      <c r="C78" s="37"/>
       <c r="D78" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="E78" s="44"/>
+      <c r="E78" s="34"/>
       <c r="F78" s="13"/>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A79" s="39"/>
-      <c r="B79" s="47"/>
-      <c r="C79" s="47"/>
+      <c r="A79" s="47"/>
+      <c r="B79" s="37"/>
+      <c r="C79" s="37"/>
       <c r="D79" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="E79" s="44"/>
+      <c r="E79" s="34"/>
       <c r="F79" s="13"/>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A80" s="39"/>
-      <c r="B80" s="47"/>
-      <c r="C80" s="47"/>
+      <c r="A80" s="47"/>
+      <c r="B80" s="37"/>
+      <c r="C80" s="37"/>
       <c r="D80" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="E80" s="44"/>
+      <c r="E80" s="34"/>
       <c r="F80" s="13"/>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A81" s="39"/>
-      <c r="B81" s="47"/>
-      <c r="C81" s="47"/>
+      <c r="A81" s="47"/>
+      <c r="B81" s="37"/>
+      <c r="C81" s="37"/>
       <c r="D81" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="E81" s="34"/>
+      <c r="F81" s="13"/>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A82" s="47"/>
+      <c r="B82" s="37"/>
+      <c r="C82" s="37"/>
+      <c r="D82" s="22" t="s">
+        <v>79</v>
+      </c>
+      <c r="E82" s="34"/>
+      <c r="F82" s="13"/>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A83" s="47"/>
+      <c r="B83" s="37"/>
+      <c r="C83" s="37"/>
+      <c r="D83" s="22" t="s">
         <v>81</v>
       </c>
-      <c r="E81" s="44"/>
-      <c r="F81" s="13"/>
-    </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A82" s="39"/>
-      <c r="B82" s="47"/>
-      <c r="C82" s="47"/>
-      <c r="D82" s="22" t="s">
-        <v>80</v>
-      </c>
-      <c r="E82" s="44"/>
-      <c r="F82" s="13"/>
-    </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A83" s="39"/>
-      <c r="B83" s="47"/>
-      <c r="C83" s="47"/>
-      <c r="D83" s="22" t="s">
-        <v>82</v>
-      </c>
-      <c r="E83" s="44"/>
+      <c r="E83" s="34"/>
       <c r="F83" s="13"/>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A84" s="40"/>
-      <c r="B84" s="48"/>
-      <c r="C84" s="48"/>
+      <c r="A84" s="48"/>
+      <c r="B84" s="38"/>
+      <c r="C84" s="38"/>
       <c r="D84" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="E84" s="45"/>
+      <c r="E84" s="35"/>
       <c r="F84" s="13"/>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A85" s="35" t="s">
+      <c r="A85" s="43" t="s">
         <v>37</v>
       </c>
-      <c r="B85" s="32" t="s">
+      <c r="B85" s="50" t="s">
+        <v>86</v>
+      </c>
+      <c r="C85" s="23" t="s">
         <v>75</v>
-      </c>
-      <c r="C85" s="32" t="s">
-        <v>76</v>
       </c>
       <c r="D85" s="6"/>
       <c r="E85" s="20" t="s">
@@ -1995,9 +2010,9 @@
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A86" s="36"/>
-      <c r="B86" s="33"/>
-      <c r="C86" s="33"/>
+      <c r="A86" s="44"/>
+      <c r="B86" s="34"/>
+      <c r="C86" s="24"/>
       <c r="D86" s="18" t="s">
         <v>5</v>
       </c>
@@ -2006,31 +2021,31 @@
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A87" s="36"/>
-      <c r="B87" s="33"/>
-      <c r="C87" s="33"/>
+      <c r="A87" s="44"/>
+      <c r="B87" s="34"/>
+      <c r="C87" s="24"/>
       <c r="D87" s="18" t="s">
+        <v>76</v>
+      </c>
+      <c r="E87" s="21" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A88" s="44"/>
+      <c r="B88" s="34"/>
+      <c r="C88" s="24"/>
+      <c r="D88" s="18" t="s">
         <v>77</v>
-      </c>
-      <c r="E87" s="21" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A88" s="36"/>
-      <c r="B88" s="33"/>
-      <c r="C88" s="33"/>
-      <c r="D88" s="18" t="s">
-        <v>78</v>
       </c>
       <c r="E88" s="21" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A89" s="36"/>
-      <c r="B89" s="33"/>
-      <c r="C89" s="33"/>
+      <c r="A89" s="44"/>
+      <c r="B89" s="34"/>
+      <c r="C89" s="24"/>
       <c r="D89" s="18" t="s">
         <v>15</v>
       </c>
@@ -2039,23 +2054,23 @@
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A90" s="37"/>
-      <c r="B90" s="34"/>
-      <c r="C90" s="34"/>
+      <c r="A90" s="45"/>
+      <c r="B90" s="35"/>
+      <c r="C90" s="25"/>
       <c r="D90" s="9"/>
       <c r="E90" s="17"/>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A91" s="35" t="s">
+      <c r="A91" s="43" t="s">
         <v>37</v>
       </c>
-      <c r="B91" s="32" t="s">
+      <c r="B91" s="50" t="s">
         <v>85</v>
       </c>
-      <c r="C91" s="32" t="s">
-        <v>86</v>
-      </c>
-      <c r="D91" s="25" t="s">
+      <c r="C91" s="23" t="s">
+        <v>83</v>
+      </c>
+      <c r="D91" s="26" t="s">
         <v>26</v>
       </c>
       <c r="E91" s="20" t="s">
@@ -2063,59 +2078,59 @@
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A92" s="36"/>
-      <c r="B92" s="33"/>
-      <c r="C92" s="33"/>
-      <c r="D92" s="26"/>
+      <c r="A92" s="44"/>
+      <c r="B92" s="34"/>
+      <c r="C92" s="24"/>
+      <c r="D92" s="27"/>
       <c r="E92" s="21" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A93" s="36"/>
-      <c r="B93" s="33"/>
-      <c r="C93" s="33"/>
-      <c r="D93" s="26"/>
+      <c r="A93" s="44"/>
+      <c r="B93" s="34"/>
+      <c r="C93" s="24"/>
+      <c r="D93" s="27"/>
       <c r="E93" s="21" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A94" s="36"/>
-      <c r="B94" s="33"/>
-      <c r="C94" s="33"/>
-      <c r="D94" s="26"/>
+      <c r="A94" s="44"/>
+      <c r="B94" s="34"/>
+      <c r="C94" s="24"/>
+      <c r="D94" s="27"/>
       <c r="E94" s="21" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A95" s="36"/>
-      <c r="B95" s="33"/>
-      <c r="C95" s="33"/>
-      <c r="D95" s="26"/>
+      <c r="A95" s="44"/>
+      <c r="B95" s="34"/>
+      <c r="C95" s="24"/>
+      <c r="D95" s="27"/>
       <c r="E95" s="21" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A96" s="37"/>
-      <c r="B96" s="34"/>
-      <c r="C96" s="34"/>
-      <c r="D96" s="31"/>
+      <c r="A96" s="45"/>
+      <c r="B96" s="35"/>
+      <c r="C96" s="25"/>
+      <c r="D96" s="28"/>
       <c r="E96" s="17"/>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A97" s="23" t="s">
+      <c r="A97" s="31" t="s">
         <v>28</v>
       </c>
-      <c r="B97" s="25" t="s">
-        <v>83</v>
-      </c>
-      <c r="C97" s="28" t="s">
+      <c r="B97" s="51" t="s">
+        <v>87</v>
+      </c>
+      <c r="C97" s="39" t="s">
         <v>44</v>
       </c>
-      <c r="D97" s="25" t="s">
+      <c r="D97" s="26" t="s">
         <v>26</v>
       </c>
       <c r="E97" s="1" t="s">
@@ -2123,62 +2138,43 @@
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A98" s="23"/>
-      <c r="B98" s="26"/>
+      <c r="A98" s="31"/>
+      <c r="B98" s="37"/>
       <c r="C98" s="29"/>
-      <c r="D98" s="26"/>
+      <c r="D98" s="27"/>
       <c r="E98" s="1" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A99" s="23"/>
-      <c r="B99" s="26"/>
+      <c r="A99" s="31"/>
+      <c r="B99" s="37"/>
       <c r="C99" s="29"/>
-      <c r="D99" s="26"/>
+      <c r="D99" s="27"/>
       <c r="E99" s="1" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A100" s="23"/>
-      <c r="B100" s="26"/>
+      <c r="A100" s="31"/>
+      <c r="B100" s="37"/>
       <c r="C100" s="29"/>
-      <c r="D100" s="26"/>
+      <c r="D100" s="27"/>
       <c r="E100" s="1" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="101" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A101" s="24"/>
-      <c r="B101" s="27"/>
-      <c r="C101" s="30"/>
-      <c r="D101" s="27"/>
+      <c r="A101" s="40"/>
+      <c r="B101" s="52"/>
+      <c r="C101" s="42"/>
+      <c r="D101" s="41"/>
       <c r="E101" s="2" t="s">
         <v>15</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="35">
-    <mergeCell ref="C91:C96"/>
-    <mergeCell ref="D91:D96"/>
-    <mergeCell ref="C2:C12"/>
-    <mergeCell ref="B2:B12"/>
-    <mergeCell ref="A2:A12"/>
-    <mergeCell ref="C13:C17"/>
-    <mergeCell ref="B13:B17"/>
-    <mergeCell ref="A13:A17"/>
-    <mergeCell ref="E77:E84"/>
-    <mergeCell ref="C77:C84"/>
-    <mergeCell ref="B77:B84"/>
-    <mergeCell ref="A18:A22"/>
-    <mergeCell ref="B18:B22"/>
-    <mergeCell ref="C18:C22"/>
-    <mergeCell ref="D18:D22"/>
-    <mergeCell ref="A23:A29"/>
-    <mergeCell ref="B23:B29"/>
-    <mergeCell ref="C23:C29"/>
-    <mergeCell ref="D30:D34"/>
     <mergeCell ref="A97:A101"/>
     <mergeCell ref="B97:B101"/>
     <mergeCell ref="C97:C101"/>
@@ -2195,6 +2191,25 @@
     <mergeCell ref="A35:A76"/>
     <mergeCell ref="A91:A96"/>
     <mergeCell ref="B91:B96"/>
+    <mergeCell ref="E77:E84"/>
+    <mergeCell ref="C77:C84"/>
+    <mergeCell ref="B77:B84"/>
+    <mergeCell ref="A18:A22"/>
+    <mergeCell ref="B18:B22"/>
+    <mergeCell ref="C18:C22"/>
+    <mergeCell ref="D18:D22"/>
+    <mergeCell ref="A23:A29"/>
+    <mergeCell ref="B23:B29"/>
+    <mergeCell ref="C23:C29"/>
+    <mergeCell ref="D30:D34"/>
+    <mergeCell ref="C91:C96"/>
+    <mergeCell ref="D91:D96"/>
+    <mergeCell ref="C2:C12"/>
+    <mergeCell ref="B2:B12"/>
+    <mergeCell ref="A2:A12"/>
+    <mergeCell ref="C13:C17"/>
+    <mergeCell ref="B13:B17"/>
+    <mergeCell ref="A13:A17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
